--- a/import_data/tournament_2.xlsx
+++ b/import_data/tournament_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t>STT</t>
   </si>
@@ -447,7 +447,7 @@
     <t>DE16-D4.1-C4.2</t>
   </si>
   <si>
-    <t>QF</t>
+    <t>DE8</t>
   </si>
   <si>
     <t>QF-10-1</t>
@@ -474,7 +474,7 @@
     <t>7-5</t>
   </si>
   <si>
-    <t>SF</t>
+    <t>DE4</t>
   </si>
   <si>
     <t>SF-10-1</t>
@@ -483,7 +483,7 @@
     <t>SF-10-2</t>
   </si>
   <si>
-    <t>F</t>
+    <t>DE2</t>
   </si>
   <si>
     <t>F10</t>
@@ -1162,6 +1162,9 @@
     <t>DE16-B4.1-A4.2</t>
   </si>
   <si>
+    <t>QF</t>
+  </si>
+  <si>
     <t>QF-9-1</t>
   </si>
   <si>
@@ -1174,10 +1177,16 @@
     <t>QF-9-4</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>SF-9-1</t>
   </si>
   <si>
     <t>SF-9-2</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
   <si>
     <t>F9</t>
@@ -18874,7 +18883,7 @@
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="B21" s="14">
         <v>1</v>
@@ -18882,7 +18891,7 @@
       <c r="C21" s="44"/>
       <c r="D21" t="s" s="2">
         <f>A21&amp;"-9-"&amp;B21</f>
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
@@ -18906,7 +18915,7 @@
     </row>
     <row r="22" ht="13.65" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="B22" s="14">
         <v>2</v>
@@ -18914,7 +18923,7 @@
       <c r="C22" s="44"/>
       <c r="D22" t="s" s="2">
         <f>A22&amp;"-9-"&amp;B22</f>
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E22" s="44"/>
       <c r="F22" s="44"/>
@@ -18938,7 +18947,7 @@
     </row>
     <row r="23" ht="13.65" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="B23" s="14">
         <v>3</v>
@@ -18946,7 +18955,7 @@
       <c r="C23" s="44"/>
       <c r="D23" t="s" s="2">
         <f>A23&amp;"-9-"&amp;B23</f>
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E23" s="44"/>
       <c r="F23" s="44"/>
@@ -18970,7 +18979,7 @@
     </row>
     <row r="24" ht="13.65" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="B24" s="14">
         <v>4</v>
@@ -18978,7 +18987,7 @@
       <c r="C24" s="44"/>
       <c r="D24" t="s" s="2">
         <f>A24&amp;"-9-"&amp;B24</f>
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
@@ -19002,7 +19011,7 @@
     </row>
     <row r="25" ht="13.65" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="B25" s="14">
         <v>1</v>
@@ -19034,7 +19043,7 @@
     </row>
     <row r="26" ht="13.65" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="B26" s="14">
         <v>2</v>
@@ -19066,7 +19075,7 @@
     </row>
     <row r="27" ht="13.65" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="B27" s="14">
         <v>3</v>
@@ -19098,7 +19107,7 @@
     </row>
     <row r="28" ht="13.65" customHeight="1">
       <c r="A28" t="s" s="2">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="B28" s="14">
         <v>4</v>
@@ -19130,7 +19139,7 @@
     </row>
     <row r="29" ht="13.65" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="B29" s="14">
         <v>1</v>
@@ -19138,7 +19147,7 @@
       <c r="C29" s="44"/>
       <c r="D29" t="s" s="2">
         <f>A29&amp;"-9-"&amp;B29</f>
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
@@ -19162,7 +19171,7 @@
     </row>
     <row r="30" ht="13.65" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="B30" s="14">
         <v>2</v>
@@ -19170,7 +19179,7 @@
       <c r="C30" s="44"/>
       <c r="D30" t="s" s="2">
         <f>A30&amp;"-9-"&amp;B30</f>
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
@@ -19194,7 +19203,7 @@
     </row>
     <row r="31" ht="13.65" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="B31" s="14">
         <v>1</v>
@@ -19226,7 +19235,7 @@
     </row>
     <row r="32" ht="13.65" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="B32" s="14">
         <v>2</v>
@@ -19258,7 +19267,7 @@
     </row>
     <row r="33" ht="13.65" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="B33" s="14">
         <v>9</v>
@@ -19266,7 +19275,7 @@
       <c r="C33" s="44"/>
       <c r="D33" t="s" s="2">
         <f>A33&amp;B33</f>
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
@@ -19290,7 +19299,7 @@
     </row>
     <row r="34" ht="13.65" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="B34" s="14">
         <v>10</v>
@@ -19474,7 +19483,7 @@
         <v>63</v>
       </c>
       <c r="F8" t="s" s="45">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="75"/>
